--- a/data_inputs/Inside_Park_Tables/TWOROCKS_202105_TRE_inside-outside_park.xlsx
+++ b/data_inputs/Inside_Park_Tables/TWOROCKS_202105_TRE_inside-outside_park.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DATA_ANALYSIS\PARKS_AUSTRALIA\AMP_Data\TWO_ROCKS_EAST\Vessel Propagation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.mccordic.NMFS\Documents\GitHub\AMP_ves_summary\data_inputs\Inside_Park_Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="13128" windowHeight="6108"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="13128" windowHeight="6108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1770,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="A386" sqref="A386:XFD386"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="D394" sqref="D394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,7 +2170,7 @@
         <v>86.505347085402903</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>157</v>
@@ -10544,7 +10544,7 @@
         <v>87.417387397743894</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
         <v>159</v>
@@ -22575,7 +22575,7 @@
         <v>84.399575438644206</v>
       </c>
       <c r="G393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H393">
         <v>153</v>

--- a/data_inputs/Inside_Park_Tables/TWOROCKS_202105_TRE_inside-outside_park.xlsx
+++ b/data_inputs/Inside_Park_Tables/TWOROCKS_202105_TRE_inside-outside_park.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="13128" windowHeight="6108"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="13128" windowHeight="6108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -351,9 +351,6 @@
     <t>5458.210525052904_sel02_S9.wav</t>
   </si>
   <si>
-    <t>5458.210525052904_sel04_S10.wav</t>
-  </si>
-  <si>
     <t>5458.210525052904_sel05_S1.wav</t>
   </si>
   <si>
@@ -1435,6 +1432,9 @@
   </si>
   <si>
     <t>5458.210724001945_sel01_S2.wav</t>
+  </si>
+  <si>
+    <t>5458.210524052912_sel04_S10.wav</t>
   </si>
 </sst>
 </file>
@@ -1770,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="D394" sqref="D394"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5968,10 +5968,10 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>471</v>
       </c>
       <c r="B80">
-        <v>210525052904</v>
+        <v>210524052912</v>
       </c>
       <c r="C80" t="s">
         <v>35</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81">
         <v>210525052904</v>
@@ -6074,13 +6074,13 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B82">
         <v>210525052904</v>
       </c>
       <c r="C82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D82">
         <v>109.847671370033</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83">
         <v>210525052904</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84">
         <v>210525052904</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85">
         <v>210525052904</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B86">
         <v>210525052904</v>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B87">
         <v>210525052904</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B88">
         <v>210525052904</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B89">
         <v>210525052904</v>
@@ -6498,13 +6498,13 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B90">
         <v>210525052904</v>
       </c>
       <c r="C90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D90">
         <v>107.892270183208</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B91">
         <v>210526052856</v>
@@ -6604,7 +6604,7 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B92">
         <v>210526052856</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B93">
         <v>210527052845</v>
@@ -6710,7 +6710,7 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B94">
         <v>210527052845</v>
@@ -6763,7 +6763,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B95">
         <v>210527052845</v>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B96">
         <v>210528052836</v>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B97">
         <v>210528052836</v>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B98">
         <v>210528052836</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B99">
         <v>210528052836</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B100">
         <v>210531052808</v>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B101">
         <v>210531052808</v>
@@ -7134,7 +7134,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B102">
         <v>210531052808</v>
@@ -7187,7 +7187,7 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B103">
         <v>210531052808</v>
@@ -7240,7 +7240,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B104">
         <v>210601052757</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B105">
         <v>210601052757</v>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B106">
         <v>210601052757</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B107">
         <v>210601052757</v>
@@ -7452,13 +7452,13 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B108">
         <v>210601052757</v>
       </c>
       <c r="C108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D108">
         <v>109.097274221611</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B109">
         <v>210601052757</v>
@@ -7558,7 +7558,7 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B110">
         <v>210601052757</v>
@@ -7611,7 +7611,7 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B111">
         <v>210601052757</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B112">
         <v>210601052757</v>
@@ -7717,13 +7717,13 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B113">
         <v>210601052757</v>
       </c>
       <c r="C113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D113">
         <v>111.419617916625</v>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B114">
         <v>210601052757</v>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B115">
         <v>210602052747</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B116">
         <v>210602052747</v>
@@ -7929,13 +7929,13 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B117">
         <v>210602052747</v>
       </c>
       <c r="C117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D117">
         <v>106.98234407290801</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B118">
         <v>210602052747</v>
@@ -8035,7 +8035,7 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B119">
         <v>210602052747</v>
@@ -8088,7 +8088,7 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B120">
         <v>210602052747</v>
@@ -8141,13 +8141,13 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B121">
         <v>210602052747</v>
       </c>
       <c r="C121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D121">
         <v>107.479809557842</v>
@@ -8194,7 +8194,7 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B122">
         <v>210602052747</v>
@@ -8247,13 +8247,13 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B123">
         <v>210602052747</v>
       </c>
       <c r="C123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D123">
         <v>106.62379774634699</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B124">
         <v>210602052747</v>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B125">
         <v>210602052747</v>
@@ -8406,7 +8406,7 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B126">
         <v>210602052747</v>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B127">
         <v>210602052747</v>
@@ -8512,7 +8512,7 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B128">
         <v>210602052747</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B129">
         <v>210602052747</v>
@@ -8618,7 +8618,7 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B130">
         <v>210602052747</v>
@@ -8671,13 +8671,13 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B131">
         <v>210602052747</v>
       </c>
       <c r="C131" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D131">
         <v>108.672560306785</v>
@@ -8724,7 +8724,7 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B132">
         <v>210602052747</v>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B133">
         <v>210602052747</v>
@@ -8830,13 +8830,13 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B134">
         <v>210602052747</v>
       </c>
       <c r="C134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D134">
         <v>107.084927191465</v>
@@ -8883,13 +8883,13 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B135">
         <v>210602052747</v>
       </c>
       <c r="C135" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D135">
         <v>111.04295991388101</v>
@@ -8936,13 +8936,13 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B136">
         <v>210602052747</v>
       </c>
       <c r="C136" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D136">
         <v>109.00587838278101</v>
@@ -8989,13 +8989,13 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B137">
         <v>210602052747</v>
       </c>
       <c r="C137" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D137">
         <v>110.84338682706201</v>
@@ -9042,7 +9042,7 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B138">
         <v>210603052735</v>
@@ -9095,7 +9095,7 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B139">
         <v>210603052735</v>
@@ -9148,7 +9148,7 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B140">
         <v>210603052735</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B141">
         <v>210603052735</v>
@@ -9254,7 +9254,7 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142">
         <v>210603052735</v>
@@ -9307,7 +9307,7 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B143">
         <v>210603052735</v>
@@ -9360,7 +9360,7 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B144">
         <v>210603052735</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B145">
         <v>210603052735</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B146">
         <v>210603052735</v>
@@ -9519,7 +9519,7 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B147">
         <v>210603052735</v>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B148">
         <v>210603052735</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149">
         <v>210603052735</v>
@@ -9678,13 +9678,13 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B150">
         <v>210603052735</v>
       </c>
       <c r="C150" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D150">
         <v>111.993042613133</v>
@@ -9731,7 +9731,7 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B151">
         <v>210604052722</v>
@@ -9784,13 +9784,13 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B152">
         <v>210604052722</v>
       </c>
       <c r="C152" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D152">
         <v>108.856126477225</v>
@@ -9837,7 +9837,7 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B153">
         <v>210604052722</v>
@@ -9890,7 +9890,7 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B154">
         <v>210604052722</v>
@@ -9943,7 +9943,7 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B155">
         <v>210604052722</v>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B156">
         <v>210604052722</v>
@@ -10049,7 +10049,7 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B157">
         <v>210604052722</v>
@@ -10102,7 +10102,7 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B158">
         <v>210604052722</v>
@@ -10155,13 +10155,13 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B159">
         <v>210604052722</v>
       </c>
       <c r="C159" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D159">
         <v>109.07319810271601</v>
@@ -10208,7 +10208,7 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B160">
         <v>210604052722</v>
@@ -10261,13 +10261,13 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B161">
         <v>210604052722</v>
       </c>
       <c r="C161" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D161">
         <v>106.844503272727</v>
@@ -10314,7 +10314,7 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B162">
         <v>210604052722</v>
@@ -10367,13 +10367,13 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B163">
         <v>210604052722</v>
       </c>
       <c r="C163" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D163">
         <v>108.193577658653</v>
@@ -10420,13 +10420,13 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B164">
         <v>210604052722</v>
       </c>
       <c r="C164" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D164">
         <v>108.326058024429</v>
@@ -10473,7 +10473,7 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B165">
         <v>210604052722</v>
@@ -10526,13 +10526,13 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B166">
         <v>210604052722</v>
       </c>
       <c r="C166" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D166">
         <v>107.935635566492</v>
@@ -10579,13 +10579,13 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B167">
         <v>210604052722</v>
       </c>
       <c r="C167" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D167">
         <v>108.04782608412199</v>
@@ -10632,13 +10632,13 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B168">
         <v>210604052722</v>
       </c>
       <c r="C168" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D168">
         <v>109.781071787961</v>
@@ -10685,7 +10685,7 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B169">
         <v>210604052722</v>
@@ -10738,7 +10738,7 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B170">
         <v>210604052722</v>
@@ -10791,7 +10791,7 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B171">
         <v>210604052722</v>
@@ -10844,7 +10844,7 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B172">
         <v>210604052722</v>
@@ -10897,7 +10897,7 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B173">
         <v>210604052722</v>
@@ -10950,7 +10950,7 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B174">
         <v>210605052709</v>
@@ -11003,7 +11003,7 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B175">
         <v>210605052709</v>
@@ -11056,7 +11056,7 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B176">
         <v>210605052709</v>
@@ -11109,7 +11109,7 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B177">
         <v>210605052709</v>
@@ -11162,7 +11162,7 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B178">
         <v>210605052709</v>
@@ -11215,7 +11215,7 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B179">
         <v>210605052709</v>
@@ -11268,7 +11268,7 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B180">
         <v>210605052709</v>
@@ -11321,7 +11321,7 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B181">
         <v>210605052709</v>
@@ -11374,7 +11374,7 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B182">
         <v>210605052709</v>
@@ -11427,7 +11427,7 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B183">
         <v>210605052709</v>
@@ -11480,7 +11480,7 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B184">
         <v>210606052659</v>
@@ -11533,7 +11533,7 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B185">
         <v>210606052659</v>
@@ -11586,7 +11586,7 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B186">
         <v>210606052659</v>
@@ -11639,7 +11639,7 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B187">
         <v>210606052659</v>
@@ -11692,7 +11692,7 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B188">
         <v>210607052649</v>
@@ -11745,7 +11745,7 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B189">
         <v>210607052649</v>
@@ -11798,7 +11798,7 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B190">
         <v>210609052632</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B191">
         <v>210610052622</v>
@@ -11904,7 +11904,7 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B192">
         <v>210610052622</v>
@@ -11957,7 +11957,7 @@
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B193">
         <v>210610052622</v>
@@ -12010,7 +12010,7 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B194">
         <v>210610052622</v>
@@ -12063,7 +12063,7 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B195">
         <v>210610052622</v>
@@ -12116,7 +12116,7 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B196">
         <v>210610052622</v>
@@ -12169,7 +12169,7 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B197">
         <v>210610052622</v>
@@ -12222,7 +12222,7 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B198">
         <v>210611052613</v>
@@ -12275,13 +12275,13 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B199">
         <v>210611052613</v>
       </c>
       <c r="C199" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D199">
         <v>109.49605457460601</v>
@@ -12328,7 +12328,7 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B200">
         <v>210611052613</v>
@@ -12381,7 +12381,7 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B201">
         <v>210611052613</v>
@@ -12434,7 +12434,7 @@
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B202">
         <v>210611052613</v>
@@ -12487,7 +12487,7 @@
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B203">
         <v>210611052613</v>
@@ -12540,7 +12540,7 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B204">
         <v>210611052613</v>
@@ -12593,7 +12593,7 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B205">
         <v>210611052613</v>
@@ -12646,7 +12646,7 @@
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B206">
         <v>210611052613</v>
@@ -12699,7 +12699,7 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B207">
         <v>210611052613</v>
@@ -12752,13 +12752,13 @@
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B208">
         <v>210611052613</v>
       </c>
       <c r="C208" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D208">
         <v>110.409782449082</v>
@@ -12805,7 +12805,7 @@
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B209">
         <v>210611052613</v>
@@ -12858,13 +12858,13 @@
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B210">
         <v>210611052613</v>
       </c>
       <c r="C210" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D210">
         <v>109.304599564654</v>
@@ -12911,7 +12911,7 @@
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B211">
         <v>210611052613</v>
@@ -12964,13 +12964,13 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B212">
         <v>210611052613</v>
       </c>
       <c r="C212" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D212">
         <v>119.757151372884</v>
@@ -13017,13 +13017,13 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B213">
         <v>210611052613</v>
       </c>
       <c r="C213" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D213">
         <v>107.955832842379</v>
@@ -13070,13 +13070,13 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B214">
         <v>210611052613</v>
       </c>
       <c r="C214" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D214">
         <v>105.624806332649</v>
@@ -13123,13 +13123,13 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B215">
         <v>210611052613</v>
       </c>
       <c r="C215" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D215">
         <v>118.76717250622301</v>
@@ -13176,13 +13176,13 @@
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B216">
         <v>210611052613</v>
       </c>
       <c r="C216" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D216">
         <v>106.231981254282</v>
@@ -13229,13 +13229,13 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B217">
         <v>210611052613</v>
       </c>
       <c r="C217" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D217">
         <v>105.641430834236</v>
@@ -13282,13 +13282,13 @@
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B218">
         <v>210611052613</v>
       </c>
       <c r="C218" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D218">
         <v>114.490182979685</v>
@@ -13335,13 +13335,13 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B219">
         <v>210611052613</v>
       </c>
       <c r="C219" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D219">
         <v>105.58547195616001</v>
@@ -13388,13 +13388,13 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B220">
         <v>210611052613</v>
       </c>
       <c r="C220" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D220">
         <v>124.467854715659</v>
@@ -13441,13 +13441,13 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B221">
         <v>210611052613</v>
       </c>
       <c r="C221" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D221">
         <v>124.85409820723601</v>
@@ -13494,13 +13494,13 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B222">
         <v>210611052613</v>
       </c>
       <c r="C222" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D222">
         <v>113.243842897641</v>
@@ -13547,13 +13547,13 @@
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B223">
         <v>210611052613</v>
       </c>
       <c r="C223" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D223">
         <v>109.99635649167401</v>
@@ -13600,13 +13600,13 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B224">
         <v>210611052613</v>
       </c>
       <c r="C224" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D224">
         <v>106.713830138829</v>
@@ -13653,7 +13653,7 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B225">
         <v>210612052602</v>
@@ -13706,7 +13706,7 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B226">
         <v>210612052602</v>
@@ -13759,7 +13759,7 @@
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B227">
         <v>210612052602</v>
@@ -13812,7 +13812,7 @@
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B228">
         <v>210612052602</v>
@@ -13865,7 +13865,7 @@
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B229">
         <v>210612052602</v>
@@ -13918,7 +13918,7 @@
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B230">
         <v>210612052602</v>
@@ -13971,7 +13971,7 @@
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B231">
         <v>210612052602</v>
@@ -14024,7 +14024,7 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B232">
         <v>210612052602</v>
@@ -14077,7 +14077,7 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B233">
         <v>210612052602</v>
@@ -14130,7 +14130,7 @@
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B234">
         <v>210612052602</v>
@@ -14183,13 +14183,13 @@
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B235">
         <v>210612052602</v>
       </c>
       <c r="C235" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D235">
         <v>120.554500060877</v>
@@ -14236,13 +14236,13 @@
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B236">
         <v>210612052602</v>
       </c>
       <c r="C236" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D236">
         <v>124.42763028399899</v>
@@ -14289,7 +14289,7 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B237">
         <v>210612052602</v>
@@ -14342,7 +14342,7 @@
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B238">
         <v>210612052602</v>
@@ -14395,13 +14395,13 @@
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B239">
         <v>210612052602</v>
       </c>
       <c r="C239" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D239">
         <v>106.82129138329501</v>
@@ -14448,7 +14448,7 @@
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B240">
         <v>210612052602</v>
@@ -14501,7 +14501,7 @@
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B241">
         <v>210612052602</v>
@@ -14554,13 +14554,13 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B242">
         <v>210612052602</v>
       </c>
       <c r="C242" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D242">
         <v>108.209688592712</v>
@@ -14607,7 +14607,7 @@
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B243">
         <v>210612052602</v>
@@ -14660,13 +14660,13 @@
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B244">
         <v>210612052602</v>
       </c>
       <c r="C244" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D244">
         <v>111.135379604166</v>
@@ -14713,13 +14713,13 @@
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B245">
         <v>210612052602</v>
       </c>
       <c r="C245" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D245">
         <v>107.50711930326401</v>
@@ -14766,13 +14766,13 @@
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B246">
         <v>210612052602</v>
       </c>
       <c r="C246" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D246">
         <v>109.757360266031</v>
@@ -14819,13 +14819,13 @@
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B247">
         <v>210612052602</v>
       </c>
       <c r="C247" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D247">
         <v>111.01889737674701</v>
@@ -14872,13 +14872,13 @@
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B248">
         <v>210612052602</v>
       </c>
       <c r="C248" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D248">
         <v>114.621242188487</v>
@@ -14925,7 +14925,7 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B249">
         <v>210613052550</v>
@@ -14978,7 +14978,7 @@
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B250">
         <v>210613052550</v>
@@ -15031,7 +15031,7 @@
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B251">
         <v>210613052550</v>
@@ -15084,7 +15084,7 @@
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B252">
         <v>210613052550</v>
@@ -15137,7 +15137,7 @@
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B253">
         <v>210613052550</v>
@@ -15190,7 +15190,7 @@
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B254">
         <v>210615052531</v>
@@ -15243,7 +15243,7 @@
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B255">
         <v>210615052531</v>
@@ -15296,7 +15296,7 @@
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B256">
         <v>210615052531</v>
@@ -15349,7 +15349,7 @@
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B257">
         <v>210615052531</v>
@@ -15402,7 +15402,7 @@
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B258">
         <v>210615052531</v>
@@ -15455,7 +15455,7 @@
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B259">
         <v>210615052531</v>
@@ -15508,7 +15508,7 @@
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B260">
         <v>210615052531</v>
@@ -15561,7 +15561,7 @@
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B261">
         <v>210616052522</v>
@@ -15614,7 +15614,7 @@
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B262">
         <v>210616052522</v>
@@ -15667,7 +15667,7 @@
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B263">
         <v>210616052522</v>
@@ -15720,13 +15720,13 @@
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B264">
         <v>210616052522</v>
       </c>
       <c r="C264" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D264">
         <v>106.96325061202199</v>
@@ -15773,7 +15773,7 @@
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B265">
         <v>210616052522</v>
@@ -15826,7 +15826,7 @@
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B266">
         <v>210616052522</v>
@@ -15879,7 +15879,7 @@
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B267">
         <v>210616052522</v>
@@ -15932,7 +15932,7 @@
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B268">
         <v>210616052522</v>
@@ -15985,7 +15985,7 @@
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B269">
         <v>210616052522</v>
@@ -16038,7 +16038,7 @@
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B270">
         <v>210616052522</v>
@@ -16091,7 +16091,7 @@
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B271">
         <v>210617052511</v>
@@ -16144,7 +16144,7 @@
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B272">
         <v>210617052511</v>
@@ -16197,7 +16197,7 @@
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B273">
         <v>210617052511</v>
@@ -16250,7 +16250,7 @@
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B274">
         <v>210617052511</v>
@@ -16303,7 +16303,7 @@
     </row>
     <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B275">
         <v>210617052511</v>
@@ -16356,7 +16356,7 @@
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B276">
         <v>210617052511</v>
@@ -16409,7 +16409,7 @@
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B277">
         <v>210618052500</v>
@@ -16462,7 +16462,7 @@
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B278">
         <v>210618052500</v>
@@ -16515,7 +16515,7 @@
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B279">
         <v>210618052500</v>
@@ -16568,7 +16568,7 @@
     </row>
     <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B280">
         <v>210618052500</v>
@@ -16621,13 +16621,13 @@
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B281">
         <v>210618052500</v>
       </c>
       <c r="C281" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D281">
         <v>106.249852587479</v>
@@ -16674,7 +16674,7 @@
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B282">
         <v>210618052500</v>
@@ -16727,7 +16727,7 @@
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B283">
         <v>210618052500</v>
@@ -16780,7 +16780,7 @@
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B284">
         <v>210618052500</v>
@@ -16833,7 +16833,7 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B285">
         <v>210619052451</v>
@@ -16886,7 +16886,7 @@
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B286">
         <v>210619052451</v>
@@ -16939,7 +16939,7 @@
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B287">
         <v>210622052422</v>
@@ -16992,7 +16992,7 @@
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B288">
         <v>210622052422</v>
@@ -17045,7 +17045,7 @@
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B289">
         <v>210623052412</v>
@@ -17098,7 +17098,7 @@
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B290">
         <v>210623052412</v>
@@ -17151,7 +17151,7 @@
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B291">
         <v>210623052412</v>
@@ -17204,7 +17204,7 @@
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B292">
         <v>210623052412</v>
@@ -17257,7 +17257,7 @@
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B293">
         <v>210623052412</v>
@@ -17310,7 +17310,7 @@
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B294">
         <v>210623052412</v>
@@ -17363,7 +17363,7 @@
     </row>
     <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B295">
         <v>210623052412</v>
@@ -17416,7 +17416,7 @@
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B296">
         <v>210623052412</v>
@@ -17469,7 +17469,7 @@
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B297">
         <v>210623052412</v>
@@ -17522,7 +17522,7 @@
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B298">
         <v>210623052412</v>
@@ -17575,7 +17575,7 @@
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B299">
         <v>210623052412</v>
@@ -17628,13 +17628,13 @@
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B300">
         <v>210623052412</v>
       </c>
       <c r="C300" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D300">
         <v>109.07157996446399</v>
@@ -17681,13 +17681,13 @@
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B301">
         <v>210623052412</v>
       </c>
       <c r="C301" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D301">
         <v>105.579771829937</v>
@@ -17734,7 +17734,7 @@
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B302">
         <v>210623052412</v>
@@ -17787,13 +17787,13 @@
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B303">
         <v>210623052412</v>
       </c>
       <c r="C303" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D303">
         <v>110.82320062269601</v>
@@ -17840,7 +17840,7 @@
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B304">
         <v>210624052403</v>
@@ -17893,7 +17893,7 @@
     </row>
     <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B305">
         <v>210624052403</v>
@@ -17946,7 +17946,7 @@
     </row>
     <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B306">
         <v>210624052403</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B307">
         <v>210624052403</v>
@@ -18052,7 +18052,7 @@
     </row>
     <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B308">
         <v>210624052403</v>
@@ -18105,7 +18105,7 @@
     </row>
     <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B309">
         <v>210624052403</v>
@@ -18158,7 +18158,7 @@
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B310">
         <v>210624052403</v>
@@ -18211,7 +18211,7 @@
     </row>
     <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B311">
         <v>210624052403</v>
@@ -18264,7 +18264,7 @@
     </row>
     <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B312">
         <v>210624052403</v>
@@ -18317,7 +18317,7 @@
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B313">
         <v>210624052403</v>
@@ -18370,13 +18370,13 @@
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B314">
         <v>210624052403</v>
       </c>
       <c r="C314" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D314">
         <v>106.77658388197599</v>
@@ -18423,7 +18423,7 @@
     </row>
     <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B315">
         <v>210624052403</v>
@@ -18476,13 +18476,13 @@
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B316">
         <v>210624052403</v>
       </c>
       <c r="C316" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D316">
         <v>108.65333140409101</v>
@@ -18529,7 +18529,7 @@
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B317">
         <v>210624052403</v>
@@ -18582,7 +18582,7 @@
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B318">
         <v>210624052403</v>
@@ -18635,7 +18635,7 @@
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B319">
         <v>210624052403</v>
@@ -18688,13 +18688,13 @@
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B320">
         <v>210624052403</v>
       </c>
       <c r="C320" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D320">
         <v>110.500098025547</v>
@@ -18741,13 +18741,13 @@
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B321">
         <v>210624052403</v>
       </c>
       <c r="C321" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D321">
         <v>121.636850044743</v>
@@ -18794,7 +18794,7 @@
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B322">
         <v>210625052352</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B323">
         <v>210625052352</v>
@@ -18900,7 +18900,7 @@
     </row>
     <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B324">
         <v>210625052352</v>
@@ -18953,7 +18953,7 @@
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B325">
         <v>210625052352</v>
@@ -19006,7 +19006,7 @@
     </row>
     <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B326">
         <v>210625052352</v>
@@ -19059,7 +19059,7 @@
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B327">
         <v>210625052352</v>
@@ -19112,7 +19112,7 @@
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B328">
         <v>210625052352</v>
@@ -19165,7 +19165,7 @@
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B329">
         <v>210625052352</v>
@@ -19218,7 +19218,7 @@
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B330">
         <v>210625052352</v>
@@ -19271,7 +19271,7 @@
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B331">
         <v>210625052352</v>
@@ -19324,13 +19324,13 @@
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B332">
         <v>210625052352</v>
       </c>
       <c r="C332" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D332">
         <v>106.014752429879</v>
@@ -19377,7 +19377,7 @@
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B333">
         <v>210625052352</v>
@@ -19430,7 +19430,7 @@
     </row>
     <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B334">
         <v>210626052343</v>
@@ -19483,7 +19483,7 @@
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B335">
         <v>210626052343</v>
@@ -19536,7 +19536,7 @@
     </row>
     <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B336">
         <v>210626052343</v>
@@ -19589,7 +19589,7 @@
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B337">
         <v>210629052315</v>
@@ -19642,7 +19642,7 @@
     </row>
     <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B338">
         <v>210629052315</v>
@@ -19695,7 +19695,7 @@
     </row>
     <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B339">
         <v>210629052315</v>
@@ -19748,7 +19748,7 @@
     </row>
     <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B340">
         <v>210630052306</v>
@@ -19801,7 +19801,7 @@
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B341">
         <v>210630052306</v>
@@ -19854,7 +19854,7 @@
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B342">
         <v>210630052306</v>
@@ -19907,7 +19907,7 @@
     </row>
     <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B343">
         <v>210701052258</v>
@@ -19960,7 +19960,7 @@
     </row>
     <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B344">
         <v>210701052258</v>
@@ -20013,7 +20013,7 @@
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B345">
         <v>210701052258</v>
@@ -20066,7 +20066,7 @@
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B346">
         <v>210701052258</v>
@@ -20119,7 +20119,7 @@
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B347">
         <v>210702052248</v>
@@ -20172,7 +20172,7 @@
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B348">
         <v>210702052248</v>
@@ -20225,7 +20225,7 @@
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B349">
         <v>210702052248</v>
@@ -20278,7 +20278,7 @@
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B350">
         <v>210702052248</v>
@@ -20331,13 +20331,13 @@
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B351">
         <v>210702052248</v>
       </c>
       <c r="C351" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D351">
         <v>108.803424731064</v>
@@ -20384,7 +20384,7 @@
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B352">
         <v>210702052248</v>
@@ -20437,7 +20437,7 @@
     </row>
     <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B353">
         <v>210702052248</v>
@@ -20490,7 +20490,7 @@
     </row>
     <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B354">
         <v>210702052248</v>
@@ -20543,13 +20543,13 @@
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B355">
         <v>210702052248</v>
       </c>
       <c r="C355" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D355">
         <v>106.62604754175101</v>
@@ -20596,7 +20596,7 @@
     </row>
     <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B356">
         <v>210702052248</v>
@@ -20649,7 +20649,7 @@
     </row>
     <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B357">
         <v>210702052248</v>
@@ -20702,7 +20702,7 @@
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B358">
         <v>210702052248</v>
@@ -20755,7 +20755,7 @@
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B359">
         <v>210702052248</v>
@@ -20808,7 +20808,7 @@
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B360">
         <v>210702052248</v>
@@ -20861,7 +20861,7 @@
     </row>
     <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B361">
         <v>210703052238</v>
@@ -20914,7 +20914,7 @@
     </row>
     <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B362">
         <v>210703052238</v>
@@ -20967,7 +20967,7 @@
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B363">
         <v>210703052238</v>
@@ -21020,7 +21020,7 @@
     </row>
     <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B364">
         <v>210703052238</v>
@@ -21073,7 +21073,7 @@
     </row>
     <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B365">
         <v>210709052138</v>
@@ -21126,7 +21126,7 @@
     </row>
     <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B366">
         <v>210709052138</v>
@@ -21179,7 +21179,7 @@
     </row>
     <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B367">
         <v>210710052128</v>
@@ -21232,7 +21232,7 @@
     </row>
     <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B368">
         <v>210710052128</v>
@@ -21285,7 +21285,7 @@
     </row>
     <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B369">
         <v>210710052128</v>
@@ -21338,7 +21338,7 @@
     </row>
     <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B370">
         <v>210710052128</v>
@@ -21391,7 +21391,7 @@
     </row>
     <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B371">
         <v>210716002055</v>
@@ -21444,7 +21444,7 @@
     </row>
     <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B372">
         <v>210716002055</v>
@@ -21497,7 +21497,7 @@
     </row>
     <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B373">
         <v>210716002055</v>
@@ -21550,7 +21550,7 @@
     </row>
     <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B374">
         <v>210717002046</v>
@@ -21603,7 +21603,7 @@
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B375">
         <v>210717002046</v>
@@ -21656,7 +21656,7 @@
     </row>
     <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B376">
         <v>210717002046</v>
@@ -21709,13 +21709,13 @@
     </row>
     <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B377">
         <v>210717002046</v>
       </c>
       <c r="C377" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D377">
         <v>105.659622842015</v>
@@ -21762,7 +21762,7 @@
     </row>
     <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B378">
         <v>210717002046</v>
@@ -21815,7 +21815,7 @@
     </row>
     <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B379">
         <v>210717002046</v>
@@ -21868,7 +21868,7 @@
     </row>
     <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B380">
         <v>210717002046</v>
@@ -21921,7 +21921,7 @@
     </row>
     <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B381">
         <v>210717002046</v>
@@ -21974,7 +21974,7 @@
     </row>
     <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B382">
         <v>210717002046</v>
@@ -22027,7 +22027,7 @@
     </row>
     <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B383">
         <v>210717002046</v>
@@ -22080,7 +22080,7 @@
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B384">
         <v>210717002046</v>
@@ -22133,7 +22133,7 @@
     </row>
     <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B385">
         <v>210717002046</v>
@@ -22186,13 +22186,13 @@
     </row>
     <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B386">
         <v>210717002046</v>
       </c>
       <c r="C386" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D386">
         <v>105.616180284078</v>
@@ -22239,7 +22239,7 @@
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B387">
         <v>210717002046</v>
@@ -22292,7 +22292,7 @@
     </row>
     <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B388">
         <v>210718002038</v>
@@ -22345,7 +22345,7 @@
     </row>
     <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B389">
         <v>210718002038</v>
@@ -22398,7 +22398,7 @@
     </row>
     <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B390">
         <v>210718002038</v>
@@ -22451,7 +22451,7 @@
     </row>
     <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B391">
         <v>210719002030</v>
@@ -22504,7 +22504,7 @@
     </row>
     <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B392">
         <v>210719002030</v>
@@ -22557,7 +22557,7 @@
     </row>
     <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B393">
         <v>210719002030</v>
@@ -22610,7 +22610,7 @@
     </row>
     <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B394">
         <v>210719002030</v>
@@ -22663,7 +22663,7 @@
     </row>
     <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B395">
         <v>210719002030</v>
@@ -22716,7 +22716,7 @@
     </row>
     <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B396">
         <v>210719002030</v>
@@ -22769,13 +22769,13 @@
     </row>
     <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B397">
         <v>210719002030</v>
       </c>
       <c r="C397" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D397">
         <v>105.984816527977</v>
@@ -22822,7 +22822,7 @@
     </row>
     <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B398">
         <v>210719002030</v>
@@ -22875,7 +22875,7 @@
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B399">
         <v>210719002030</v>
@@ -22928,13 +22928,13 @@
     </row>
     <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B400">
         <v>210719002030</v>
       </c>
       <c r="C400" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D400">
         <v>104.736083433921</v>
@@ -22981,7 +22981,7 @@
     </row>
     <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B401">
         <v>210719002030</v>
@@ -23034,7 +23034,7 @@
     </row>
     <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B402">
         <v>210719002030</v>
@@ -23087,7 +23087,7 @@
     </row>
     <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B403">
         <v>210719002030</v>
@@ -23140,7 +23140,7 @@
     </row>
     <row r="404" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B404">
         <v>210719002030</v>
@@ -23193,7 +23193,7 @@
     </row>
     <row r="405" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B405">
         <v>210719002030</v>
@@ -23246,7 +23246,7 @@
     </row>
     <row r="406" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B406">
         <v>210719002030</v>
@@ -23299,13 +23299,13 @@
     </row>
     <row r="407" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B407">
         <v>210719002030</v>
       </c>
       <c r="C407" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D407">
         <v>108.298571162703</v>
@@ -23352,7 +23352,7 @@
     </row>
     <row r="408" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B408">
         <v>210720002020</v>
@@ -23405,7 +23405,7 @@
     </row>
     <row r="409" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B409">
         <v>210720002020</v>
@@ -23458,7 +23458,7 @@
     </row>
     <row r="410" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B410">
         <v>210721002011</v>
@@ -23511,7 +23511,7 @@
     </row>
     <row r="411" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B411">
         <v>210721002011</v>
@@ -23564,7 +23564,7 @@
     </row>
     <row r="412" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B412">
         <v>210721002011</v>
@@ -23617,7 +23617,7 @@
     </row>
     <row r="413" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B413">
         <v>210722002002</v>
@@ -23670,7 +23670,7 @@
     </row>
     <row r="414" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B414">
         <v>210722002002</v>
@@ -23723,7 +23723,7 @@
     </row>
     <row r="415" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B415">
         <v>210722002002</v>
@@ -23776,7 +23776,7 @@
     </row>
     <row r="416" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B416">
         <v>210722002002</v>
@@ -23829,7 +23829,7 @@
     </row>
     <row r="417" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B417">
         <v>210722002002</v>
@@ -23882,7 +23882,7 @@
     </row>
     <row r="418" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B418">
         <v>210722002002</v>
@@ -23935,7 +23935,7 @@
     </row>
     <row r="419" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B419">
         <v>210722002002</v>
@@ -23988,7 +23988,7 @@
     </row>
     <row r="420" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B420">
         <v>210722002002</v>
@@ -24041,13 +24041,13 @@
     </row>
     <row r="421" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B421">
         <v>210722002002</v>
       </c>
       <c r="C421" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D421">
         <v>107.56829382610999</v>
@@ -24094,7 +24094,7 @@
     </row>
     <row r="422" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B422">
         <v>210722002002</v>
@@ -24147,13 +24147,13 @@
     </row>
     <row r="423" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B423">
         <v>210722002002</v>
       </c>
       <c r="C423" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D423">
         <v>105.375180681907</v>
@@ -24200,7 +24200,7 @@
     </row>
     <row r="424" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B424">
         <v>210723001954</v>
@@ -24253,7 +24253,7 @@
     </row>
     <row r="425" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B425">
         <v>210724001945</v>

--- a/data_inputs/Inside_Park_Tables/TWOROCKS_202105_TRE_inside-outside_park.xlsx
+++ b/data_inputs/Inside_Park_Tables/TWOROCKS_202105_TRE_inside-outside_park.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="13128" windowHeight="6108"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="13128" windowHeight="6108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$Q$425</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1770,13 +1773,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
